--- a/q1_dataFiles/06_Signifikanztests.xlsx
+++ b/q1_dataFiles/06_Signifikanztests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529B35FC-9CFD-41B9-9DDA-0818F0ED33B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE37EE3-F581-4036-ADF3-7ECF482B1733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einstichproben-t-Test Aufgabe" sheetId="11" r:id="rId1"/>
@@ -10017,7 +10017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9C1F1B-816E-4C59-AD99-19FB5177931C}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13919,8 +13919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A87288A-D722-437D-8FC1-24ABD04BCE9E}">
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14360,8 +14360,8 @@
         <v>-1.6603911560169928</v>
       </c>
       <c r="H25">
-        <f>_xlfn.T.INV(0.05,100-1)</f>
-        <v>-1.6603911560169928</v>
+        <f>_xlfn.T.INV.2T(0.05,100-1)</f>
+        <v>1.9842169515864165</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">

--- a/q1_dataFiles/06_Signifikanztests.xlsx
+++ b/q1_dataFiles/06_Signifikanztests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engelmann6\Desktop\Quanti Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE37EE3-F581-4036-ADF3-7ECF482B1733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC11923-CC4A-4836-B5EF-092E35E1BCBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" tabRatio="788" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einstichproben-t-Test Aufgabe" sheetId="11" r:id="rId1"/>
@@ -19,26 +19,19 @@
     <sheet name="Zweistichproben-t-Test Lösung" sheetId="12" r:id="rId4"/>
     <sheet name="Paardifferenzen-Test Aufgabe" sheetId="15" r:id="rId5"/>
     <sheet name="Paardifferenzen-Test Lösung" sheetId="13" r:id="rId6"/>
+    <sheet name="Übersicht t-Befehle" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="93">
   <si>
     <t>Mittelwert</t>
   </si>
@@ -310,6 +303,33 @@
   </si>
   <si>
     <t>Prüfen Sie auch, ob die Werte von Leuten, die ihre Ernährung nicht auf vegan umstellen, unverändert bleiben.</t>
+  </si>
+  <si>
+    <t>t.inv</t>
+  </si>
+  <si>
+    <t>t.inv.2S</t>
+  </si>
+  <si>
+    <t>t.vert</t>
+  </si>
+  <si>
+    <t>t.vert.re</t>
+  </si>
+  <si>
+    <t>t.vert.2S</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit eingeben, t-Wert rauskriegen (z.B.: Ermitteln kritischer t-Werte)</t>
+  </si>
+  <si>
+    <t>T-Wert eingeben, Wahrscheinlichkeit rauskriegen (z.B.: Ermitteln von p-Werten)</t>
+  </si>
+  <si>
+    <t>5% bei N = 100</t>
+  </si>
+  <si>
+    <t>für t = 2,4 und N = 100</t>
   </si>
 </sst>
 </file>
@@ -8797,6 +8817,354 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>265624</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C584BC0-8FC1-42D3-A450-B10D8D07963E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524124" y="927048"/>
+          <a:ext cx="9457250" cy="5041952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>293868</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204F2E5F-F2B9-499F-B1C5-EC79FEFD0204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12341225" y="914400"/>
+          <a:ext cx="9574393" cy="5105183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>184149</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>113063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312849</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33AAF5-57B2-43FE-9716-EAE6D113D540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2898774" y="6447188"/>
+          <a:ext cx="9561625" cy="5011387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>178396</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>75743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9A7FC1-660F-4F89-AD5B-7DB2E9F94166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178771" y="12684125"/>
+          <a:ext cx="9537103" cy="5127168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>269504</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365EA28A-75F4-409F-97D1-27102F3A90AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="18126075"/>
+          <a:ext cx="9518279" cy="5006975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>178194</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>106753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Grafik 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD05A9B1-9381-4902-87F7-D092DEA1D382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178569" y="23545800"/>
+          <a:ext cx="9530955" cy="4970853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>158947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>627323</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>124756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Grafik 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1927FC1-C3B5-49D3-A970-C31D6B91A021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14141450" y="12646222"/>
+          <a:ext cx="10345998" cy="5214084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -9066,17 +9434,17 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="38.54296875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -9086,7 +9454,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -9096,41 +9464,41 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -9144,7 +9512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>110</v>
       </c>
@@ -9160,7 +9528,7 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>81</v>
       </c>
@@ -9176,7 +9544,7 @@
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>109</v>
       </c>
@@ -9185,7 +9553,7 @@
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>95</v>
       </c>
@@ -9193,7 +9561,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>79</v>
       </c>
@@ -9211,7 +9579,7 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>93</v>
       </c>
@@ -9229,12 +9597,12 @@
       </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>92</v>
       </c>
@@ -9245,7 +9613,7 @@
       </c>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>82</v>
       </c>
@@ -9256,7 +9624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>104</v>
       </c>
@@ -9273,7 +9641,7 @@
       </c>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>76</v>
       </c>
@@ -9285,7 +9653,7 @@
         <v>87.283879715882065</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>91</v>
       </c>
@@ -9297,12 +9665,12 @@
         <v>96.556120284117938</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>121</v>
       </c>
@@ -9319,7 +9687,7 @@
       </c>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>100</v>
       </c>
@@ -9334,7 +9702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>86</v>
       </c>
@@ -9344,173 +9712,173 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>76</v>
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>130</v>
       </c>
@@ -9533,17 +9901,17 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="38.54296875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -9553,7 +9921,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -9563,41 +9931,41 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -9611,7 +9979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>110</v>
       </c>
@@ -9630,7 +9998,7 @@
         <v>-8.0799999999999983</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>81</v>
       </c>
@@ -9649,7 +10017,7 @@
         <v>-3.5023612246707581</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>109</v>
       </c>
@@ -9661,7 +10029,7 @@
         <v>-2.0095752371292388</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>95</v>
       </c>
@@ -9669,7 +10037,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>79</v>
       </c>
@@ -9690,7 +10058,7 @@
         <v>9.942699456811008E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>93</v>
       </c>
@@ -9710,12 +10078,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>92</v>
       </c>
@@ -9728,7 +10096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>82</v>
       </c>
@@ -9739,7 +10107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>104</v>
       </c>
@@ -9758,7 +10126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>76</v>
       </c>
@@ -9770,7 +10138,7 @@
         <v>87.283879715882065</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>91</v>
       </c>
@@ -9782,12 +10150,12 @@
         <v>96.556120284117938</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>121</v>
       </c>
@@ -9807,7 +10175,7 @@
         <v>-0.49530867442590287</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>100</v>
       </c>
@@ -9822,7 +10190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>86</v>
       </c>
@@ -9832,173 +10200,173 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>76</v>
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>130</v>
       </c>
@@ -10019,21 +10387,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -10048,7 +10416,7 @@
       </c>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10065,7 +10433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -10087,7 +10455,7 @@
         <v>212.93350000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10109,7 +10477,7 @@
         <v>37.865651185960765</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10129,7 +10497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -10151,7 +10519,7 @@
         <v>17.721670263501164</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10162,7 +10530,7 @@
         <v>271.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -10173,7 +10541,7 @@
         <v>261.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -10187,7 +10555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -10203,7 +10571,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10</v>
       </c>
@@ -10222,7 +10590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>11</v>
       </c>
@@ -10238,7 +10606,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12</v>
       </c>
@@ -10254,7 +10622,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>13</v>
       </c>
@@ -10267,7 +10635,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14</v>
       </c>
@@ -10283,7 +10651,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15</v>
       </c>
@@ -10299,7 +10667,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>16</v>
       </c>
@@ -10315,7 +10683,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>17</v>
       </c>
@@ -10331,7 +10699,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>18</v>
       </c>
@@ -10342,7 +10710,7 @@
         <v>232.43</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19</v>
       </c>
@@ -10356,7 +10724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>20</v>
       </c>
@@ -10372,7 +10740,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>21</v>
       </c>
@@ -10387,7 +10755,7 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22</v>
       </c>
@@ -10403,7 +10771,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>23</v>
       </c>
@@ -10419,7 +10787,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>24</v>
       </c>
@@ -10435,7 +10803,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>25</v>
       </c>
@@ -10448,7 +10816,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>26</v>
       </c>
@@ -10459,7 +10827,7 @@
         <v>187.12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>27</v>
       </c>
@@ -10470,7 +10838,7 @@
         <v>252.96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>28</v>
       </c>
@@ -10481,7 +10849,7 @@
         <v>160.09</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>29</v>
       </c>
@@ -10492,7 +10860,7 @@
         <v>169.96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>30</v>
       </c>
@@ -10503,7 +10871,7 @@
         <v>177.22</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>31</v>
       </c>
@@ -10514,7 +10882,7 @@
         <v>259.32</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>32</v>
       </c>
@@ -10525,7 +10893,7 @@
         <v>258.26</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>33</v>
       </c>
@@ -10539,7 +10907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>34</v>
       </c>
@@ -10550,7 +10918,7 @@
         <v>285.05</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>35</v>
       </c>
@@ -10561,7 +10929,7 @@
         <v>190.14</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>36</v>
       </c>
@@ -10572,7 +10940,7 @@
         <v>192.32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>37</v>
       </c>
@@ -10583,7 +10951,7 @@
         <v>225.37</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>38</v>
       </c>
@@ -10594,7 +10962,7 @@
         <v>179.17</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>39</v>
       </c>
@@ -10605,7 +10973,7 @@
         <v>222.03</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>40</v>
       </c>
@@ -10640,21 +11008,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -10669,7 +11037,7 @@
       </c>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10686,7 +11054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -10708,7 +11076,7 @@
         <v>212.93350000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10730,7 +11098,7 @@
         <v>37.865651185960765</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10750,7 +11118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -10772,7 +11140,7 @@
         <v>17.721670263501164</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10783,7 +11151,7 @@
         <v>271.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -10794,7 +11162,7 @@
         <v>261.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -10808,7 +11176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -10827,7 +11195,7 @@
       </c>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10</v>
       </c>
@@ -10849,7 +11217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>11</v>
       </c>
@@ -10868,7 +11236,7 @@
       </c>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12</v>
       </c>
@@ -10887,7 +11255,7 @@
       </c>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>13</v>
       </c>
@@ -10900,7 +11268,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14</v>
       </c>
@@ -10919,7 +11287,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15</v>
       </c>
@@ -10938,7 +11306,7 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>16</v>
       </c>
@@ -10956,7 +11324,7 @@
       </c>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>17</v>
       </c>
@@ -10974,7 +11342,7 @@
       </c>
       <c r="H25" s="29"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>18</v>
       </c>
@@ -10985,7 +11353,7 @@
         <v>232.43</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19</v>
       </c>
@@ -10999,7 +11367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>20</v>
       </c>
@@ -11018,7 +11386,7 @@
       </c>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>21</v>
       </c>
@@ -11039,7 +11407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22</v>
       </c>
@@ -11058,7 +11426,7 @@
       </c>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>23</v>
       </c>
@@ -11077,7 +11445,7 @@
       </c>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>24</v>
       </c>
@@ -11096,7 +11464,7 @@
       </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>25</v>
       </c>
@@ -11109,7 +11477,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>26</v>
       </c>
@@ -11120,7 +11488,7 @@
         <v>187.12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>27</v>
       </c>
@@ -11131,7 +11499,7 @@
         <v>252.96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>28</v>
       </c>
@@ -11142,7 +11510,7 @@
         <v>160.09</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>29</v>
       </c>
@@ -11153,7 +11521,7 @@
         <v>169.96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>30</v>
       </c>
@@ -11164,7 +11532,7 @@
         <v>177.22</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>31</v>
       </c>
@@ -11175,7 +11543,7 @@
         <v>259.32</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>32</v>
       </c>
@@ -11186,7 +11554,7 @@
         <v>258.26</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>33</v>
       </c>
@@ -11200,7 +11568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>34</v>
       </c>
@@ -11211,7 +11579,7 @@
         <v>285.05</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>35</v>
       </c>
@@ -11222,7 +11590,7 @@
         <v>190.14</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>36</v>
       </c>
@@ -11233,7 +11601,7 @@
         <v>192.32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>37</v>
       </c>
@@ -11244,7 +11612,7 @@
         <v>225.37</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>38</v>
       </c>
@@ -11255,7 +11623,7 @@
         <v>179.17</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>39</v>
       </c>
@@ -11266,7 +11634,7 @@
         <v>222.03</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>40</v>
       </c>
@@ -11303,28 +11671,28 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="27" t="s">
         <v>38</v>
       </c>
@@ -11338,7 +11706,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -11364,7 +11732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -11395,7 +11763,7 @@
         <v>251.05738476906504</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -11426,7 +11794,7 @@
         <v>39.311294996523067</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -11453,7 +11821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -11484,7 +11852,7 @@
         <v>7.8002137920915349</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -11496,7 +11864,7 @@
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -11508,7 +11876,7 @@
       </c>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -11526,7 +11894,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -11545,7 +11913,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -11563,7 +11931,7 @@
       <c r="H19" s="19"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -11581,7 +11949,7 @@
       <c r="H20" s="19"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -11599,7 +11967,7 @@
       <c r="H21" s="19"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -11617,7 +11985,7 @@
       <c r="H22" s="23"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -11629,7 +11997,7 @@
       </c>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -11646,7 +12014,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -11663,7 +12031,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -11680,7 +12048,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -11697,7 +12065,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -11709,7 +12077,7 @@
       </c>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -11726,7 +12094,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -11738,7 +12106,7 @@
       </c>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -11755,7 +12123,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -11767,7 +12135,7 @@
       </c>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -11779,7 +12147,7 @@
       </c>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -11791,7 +12159,7 @@
       </c>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -11803,7 +12171,7 @@
       </c>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -11815,7 +12183,7 @@
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -11827,7 +12195,7 @@
       </c>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -11839,7 +12207,7 @@
       </c>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -11851,7 +12219,7 @@
       </c>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -11863,7 +12231,7 @@
       </c>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -11875,7 +12243,7 @@
       </c>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -11887,7 +12255,7 @@
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -11899,7 +12267,7 @@
       </c>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -11911,7 +12279,7 @@
       </c>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -11923,7 +12291,7 @@
       </c>
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -11935,7 +12303,7 @@
       </c>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -11947,7 +12315,7 @@
       </c>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -11959,7 +12327,7 @@
       </c>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -11971,7 +12339,7 @@
       </c>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -11983,7 +12351,7 @@
       </c>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -11995,7 +12363,7 @@
       </c>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -12007,7 +12375,7 @@
       </c>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -12019,7 +12387,7 @@
       </c>
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -12031,7 +12399,7 @@
       </c>
       <c r="D54" s="15"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -12043,7 +12411,7 @@
       </c>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -12055,7 +12423,7 @@
       </c>
       <c r="D56" s="15"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -12067,7 +12435,7 @@
       </c>
       <c r="D57" s="15"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -12079,7 +12447,7 @@
       </c>
       <c r="D58" s="15"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -12091,7 +12459,7 @@
       </c>
       <c r="D59" s="15"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -12103,7 +12471,7 @@
       </c>
       <c r="D60" s="15"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12115,7 +12483,7 @@
       </c>
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -12127,7 +12495,7 @@
       </c>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -12139,7 +12507,7 @@
       </c>
       <c r="D63" s="15"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -12151,7 +12519,7 @@
       </c>
       <c r="D64" s="15"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -12163,7 +12531,7 @@
       </c>
       <c r="D65" s="15"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -12175,7 +12543,7 @@
       </c>
       <c r="D66" s="15"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -12187,7 +12555,7 @@
       </c>
       <c r="D67" s="15"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -12199,7 +12567,7 @@
       </c>
       <c r="D68" s="15"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -12211,7 +12579,7 @@
       </c>
       <c r="D69" s="15"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -12223,7 +12591,7 @@
       </c>
       <c r="D70" s="15"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -12235,7 +12603,7 @@
       </c>
       <c r="D71" s="15"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -12247,7 +12615,7 @@
       </c>
       <c r="D72" s="15"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -12259,7 +12627,7 @@
       </c>
       <c r="D73" s="15"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -12271,7 +12639,7 @@
       </c>
       <c r="D74" s="15"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -12283,7 +12651,7 @@
       </c>
       <c r="D75" s="15"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -12295,7 +12663,7 @@
       </c>
       <c r="D76" s="15"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -12307,7 +12675,7 @@
       </c>
       <c r="D77" s="15"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -12319,7 +12687,7 @@
       </c>
       <c r="D78" s="15"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -12331,7 +12699,7 @@
       </c>
       <c r="D79" s="15"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -12343,7 +12711,7 @@
       </c>
       <c r="D80" s="15"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -12355,7 +12723,7 @@
       </c>
       <c r="D81" s="15"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -12367,7 +12735,7 @@
       </c>
       <c r="D82" s="15"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -12379,7 +12747,7 @@
       </c>
       <c r="D83" s="15"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -12391,7 +12759,7 @@
       </c>
       <c r="D84" s="15"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -12403,7 +12771,7 @@
       </c>
       <c r="D85" s="15"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -12415,7 +12783,7 @@
       </c>
       <c r="D86" s="15"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -12427,7 +12795,7 @@
       </c>
       <c r="D87" s="15"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -12439,7 +12807,7 @@
       </c>
       <c r="D88" s="15"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12451,7 +12819,7 @@
       </c>
       <c r="D89" s="15"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -12463,7 +12831,7 @@
       </c>
       <c r="D90" s="15"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -12475,7 +12843,7 @@
       </c>
       <c r="D91" s="15"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -12487,7 +12855,7 @@
       </c>
       <c r="D92" s="15"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -12499,7 +12867,7 @@
       </c>
       <c r="D93" s="15"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -12511,7 +12879,7 @@
       </c>
       <c r="D94" s="15"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -12523,7 +12891,7 @@
       </c>
       <c r="D95" s="15"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -12535,7 +12903,7 @@
       </c>
       <c r="D96" s="15"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -12547,7 +12915,7 @@
       </c>
       <c r="D97" s="15"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -12559,7 +12927,7 @@
       </c>
       <c r="D98" s="15"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -12571,7 +12939,7 @@
       </c>
       <c r="D99" s="15"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -12583,7 +12951,7 @@
       </c>
       <c r="D100" s="15"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -12595,7 +12963,7 @@
       </c>
       <c r="D101" s="15"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -12607,7 +12975,7 @@
       </c>
       <c r="D102" s="15"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -12619,7 +12987,7 @@
       </c>
       <c r="D103" s="15"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -12631,7 +12999,7 @@
       </c>
       <c r="D104" s="15"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -12643,7 +13011,7 @@
       </c>
       <c r="D105" s="15"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -12655,7 +13023,7 @@
       </c>
       <c r="D106" s="15"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -12667,7 +13035,7 @@
       </c>
       <c r="D107" s="15"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -12679,7 +13047,7 @@
       </c>
       <c r="D108" s="15"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -12691,7 +13059,7 @@
       </c>
       <c r="D109" s="15"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -12703,7 +13071,7 @@
       </c>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>61</v>
       </c>
@@ -12715,7 +13083,7 @@
       </c>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -12727,7 +13095,7 @@
       </c>
       <c r="D112" s="15"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -12739,7 +13107,7 @@
       </c>
       <c r="D113" s="15"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -12751,7 +13119,7 @@
       </c>
       <c r="D114" s="15"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>61</v>
       </c>
@@ -12763,7 +13131,7 @@
       </c>
       <c r="D115" s="15"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -12775,7 +13143,7 @@
       </c>
       <c r="D116" s="15"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -12787,7 +13155,7 @@
       </c>
       <c r="D117" s="15"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -12799,7 +13167,7 @@
       </c>
       <c r="D118" s="15"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -12811,7 +13179,7 @@
       </c>
       <c r="D119" s="15"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>61</v>
       </c>
@@ -12823,7 +13191,7 @@
       </c>
       <c r="D120" s="15"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -12835,7 +13203,7 @@
       </c>
       <c r="D121" s="15"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -12847,7 +13215,7 @@
       </c>
       <c r="D122" s="15"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -12859,7 +13227,7 @@
       </c>
       <c r="D123" s="15"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -12871,7 +13239,7 @@
       </c>
       <c r="D124" s="15"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>61</v>
       </c>
@@ -12883,7 +13251,7 @@
       </c>
       <c r="D125" s="15"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>61</v>
       </c>
@@ -12895,7 +13263,7 @@
       </c>
       <c r="D126" s="15"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>61</v>
       </c>
@@ -12907,7 +13275,7 @@
       </c>
       <c r="D127" s="15"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -12919,7 +13287,7 @@
       </c>
       <c r="D128" s="15"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -12931,7 +13299,7 @@
       </c>
       <c r="D129" s="15"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -12943,7 +13311,7 @@
       </c>
       <c r="D130" s="15"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -12955,7 +13323,7 @@
       </c>
       <c r="D131" s="15"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -12967,7 +13335,7 @@
       </c>
       <c r="D132" s="15"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>61</v>
       </c>
@@ -12979,7 +13347,7 @@
       </c>
       <c r="D133" s="15"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>61</v>
       </c>
@@ -12991,7 +13359,7 @@
       </c>
       <c r="D134" s="15"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>61</v>
       </c>
@@ -13003,7 +13371,7 @@
       </c>
       <c r="D135" s="15"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -13015,7 +13383,7 @@
       </c>
       <c r="D136" s="15"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -13027,7 +13395,7 @@
       </c>
       <c r="D137" s="15"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>61</v>
       </c>
@@ -13039,7 +13407,7 @@
       </c>
       <c r="D138" s="15"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -13051,7 +13419,7 @@
       </c>
       <c r="D139" s="15"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -13063,7 +13431,7 @@
       </c>
       <c r="D140" s="15"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -13075,7 +13443,7 @@
       </c>
       <c r="D141" s="15"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -13087,7 +13455,7 @@
       </c>
       <c r="D142" s="15"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -13099,7 +13467,7 @@
       </c>
       <c r="D143" s="15"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>61</v>
       </c>
@@ -13111,7 +13479,7 @@
       </c>
       <c r="D144" s="15"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>61</v>
       </c>
@@ -13123,7 +13491,7 @@
       </c>
       <c r="D145" s="15"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>61</v>
       </c>
@@ -13135,7 +13503,7 @@
       </c>
       <c r="D146" s="15"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>61</v>
       </c>
@@ -13147,7 +13515,7 @@
       </c>
       <c r="D147" s="15"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>61</v>
       </c>
@@ -13159,7 +13527,7 @@
       </c>
       <c r="D148" s="15"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>61</v>
       </c>
@@ -13171,7 +13539,7 @@
       </c>
       <c r="D149" s="15"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>61</v>
       </c>
@@ -13183,7 +13551,7 @@
       </c>
       <c r="D150" s="15"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>61</v>
       </c>
@@ -13195,7 +13563,7 @@
       </c>
       <c r="D151" s="15"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>61</v>
       </c>
@@ -13207,7 +13575,7 @@
       </c>
       <c r="D152" s="15"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -13219,7 +13587,7 @@
       </c>
       <c r="D153" s="15"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>61</v>
       </c>
@@ -13231,7 +13599,7 @@
       </c>
       <c r="D154" s="15"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>61</v>
       </c>
@@ -13243,7 +13611,7 @@
       </c>
       <c r="D155" s="15"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>61</v>
       </c>
@@ -13255,7 +13623,7 @@
       </c>
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -13267,7 +13635,7 @@
       </c>
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>61</v>
       </c>
@@ -13279,7 +13647,7 @@
       </c>
       <c r="D158" s="15"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>61</v>
       </c>
@@ -13291,7 +13659,7 @@
       </c>
       <c r="D159" s="15"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>61</v>
       </c>
@@ -13303,7 +13671,7 @@
       </c>
       <c r="D160" s="15"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>61</v>
       </c>
@@ -13315,7 +13683,7 @@
       </c>
       <c r="D161" s="15"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>61</v>
       </c>
@@ -13327,7 +13695,7 @@
       </c>
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>61</v>
       </c>
@@ -13339,7 +13707,7 @@
       </c>
       <c r="D163" s="15"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>61</v>
       </c>
@@ -13351,7 +13719,7 @@
       </c>
       <c r="D164" s="15"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>61</v>
       </c>
@@ -13363,7 +13731,7 @@
       </c>
       <c r="D165" s="15"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>61</v>
       </c>
@@ -13375,7 +13743,7 @@
       </c>
       <c r="D166" s="15"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>61</v>
       </c>
@@ -13387,7 +13755,7 @@
       </c>
       <c r="D167" s="15"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>61</v>
       </c>
@@ -13399,7 +13767,7 @@
       </c>
       <c r="D168" s="15"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>61</v>
       </c>
@@ -13411,7 +13779,7 @@
       </c>
       <c r="D169" s="15"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>61</v>
       </c>
@@ -13423,7 +13791,7 @@
       </c>
       <c r="D170" s="15"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>61</v>
       </c>
@@ -13435,7 +13803,7 @@
       </c>
       <c r="D171" s="15"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>61</v>
       </c>
@@ -13447,7 +13815,7 @@
       </c>
       <c r="D172" s="15"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>61</v>
       </c>
@@ -13459,7 +13827,7 @@
       </c>
       <c r="D173" s="15"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>61</v>
       </c>
@@ -13471,7 +13839,7 @@
       </c>
       <c r="D174" s="15"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>61</v>
       </c>
@@ -13483,7 +13851,7 @@
       </c>
       <c r="D175" s="15"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>61</v>
       </c>
@@ -13495,7 +13863,7 @@
       </c>
       <c r="D176" s="15"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>61</v>
       </c>
@@ -13507,7 +13875,7 @@
       </c>
       <c r="D177" s="15"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>61</v>
       </c>
@@ -13519,7 +13887,7 @@
       </c>
       <c r="D178" s="15"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>61</v>
       </c>
@@ -13531,7 +13899,7 @@
       </c>
       <c r="D179" s="15"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>61</v>
       </c>
@@ -13543,7 +13911,7 @@
       </c>
       <c r="D180" s="15"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>61</v>
       </c>
@@ -13555,7 +13923,7 @@
       </c>
       <c r="D181" s="15"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>61</v>
       </c>
@@ -13567,7 +13935,7 @@
       </c>
       <c r="D182" s="15"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>61</v>
       </c>
@@ -13579,7 +13947,7 @@
       </c>
       <c r="D183" s="15"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>61</v>
       </c>
@@ -13591,7 +13959,7 @@
       </c>
       <c r="D184" s="15"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -13603,7 +13971,7 @@
       </c>
       <c r="D185" s="15"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>61</v>
       </c>
@@ -13615,7 +13983,7 @@
       </c>
       <c r="D186" s="15"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>61</v>
       </c>
@@ -13627,7 +13995,7 @@
       </c>
       <c r="D187" s="15"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>61</v>
       </c>
@@ -13639,7 +14007,7 @@
       </c>
       <c r="D188" s="15"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>61</v>
       </c>
@@ -13651,7 +14019,7 @@
       </c>
       <c r="D189" s="15"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>61</v>
       </c>
@@ -13663,7 +14031,7 @@
       </c>
       <c r="D190" s="15"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>61</v>
       </c>
@@ -13675,7 +14043,7 @@
       </c>
       <c r="D191" s="15"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>61</v>
       </c>
@@ -13687,7 +14055,7 @@
       </c>
       <c r="D192" s="15"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>61</v>
       </c>
@@ -13699,7 +14067,7 @@
       </c>
       <c r="D193" s="15"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>61</v>
       </c>
@@ -13711,7 +14079,7 @@
       </c>
       <c r="D194" s="15"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>61</v>
       </c>
@@ -13723,7 +14091,7 @@
       </c>
       <c r="D195" s="15"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>61</v>
       </c>
@@ -13735,7 +14103,7 @@
       </c>
       <c r="D196" s="15"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>61</v>
       </c>
@@ -13747,7 +14115,7 @@
       </c>
       <c r="D197" s="15"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>61</v>
       </c>
@@ -13759,7 +14127,7 @@
       </c>
       <c r="D198" s="15"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>61</v>
       </c>
@@ -13771,7 +14139,7 @@
       </c>
       <c r="D199" s="15"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>61</v>
       </c>
@@ -13783,7 +14151,7 @@
       </c>
       <c r="D200" s="15"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>61</v>
       </c>
@@ -13795,7 +14163,7 @@
       </c>
       <c r="D201" s="15"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>61</v>
       </c>
@@ -13807,7 +14175,7 @@
       </c>
       <c r="D202" s="15"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>61</v>
       </c>
@@ -13819,7 +14187,7 @@
       </c>
       <c r="D203" s="15"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>61</v>
       </c>
@@ -13831,7 +14199,7 @@
       </c>
       <c r="D204" s="15"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>61</v>
       </c>
@@ -13843,7 +14211,7 @@
       </c>
       <c r="D205" s="15"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>61</v>
       </c>
@@ -13855,7 +14223,7 @@
       </c>
       <c r="D206" s="15"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>61</v>
       </c>
@@ -13867,7 +14235,7 @@
       </c>
       <c r="D207" s="15"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>61</v>
       </c>
@@ -13879,7 +14247,7 @@
       </c>
       <c r="D208" s="15"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>61</v>
       </c>
@@ -13891,7 +14259,7 @@
       </c>
       <c r="D209" s="15"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>61</v>
       </c>
@@ -13919,32 +14287,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A87288A-D722-437D-8FC1-24ABD04BCE9E}">
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="27" t="s">
         <v>38</v>
       </c>
@@ -13958,7 +14326,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -13984,7 +14352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -14018,7 +14386,7 @@
         <v>251.05738476906504</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -14052,7 +14420,7 @@
         <v>39.311294996523067</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -14082,7 +14450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -14116,7 +14484,7 @@
         <v>7.8002137920915349</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -14131,7 +14499,7 @@
         <v>-58.735116379513983</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -14146,7 +14514,7 @@
         <v>-51.867028938690964</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -14167,7 +14535,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -14189,7 +14557,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -14216,7 +14584,7 @@
       </c>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -14243,7 +14611,7 @@
       </c>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -14270,7 +14638,7 @@
       </c>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -14297,7 +14665,7 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -14312,7 +14680,7 @@
         <v>-81.025231675225001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -14338,7 +14706,7 @@
         <v>-1.5194036221723293</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -14364,7 +14732,7 @@
         <v>1.9842169515864165</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -14390,7 +14758,7 @@
         <v>0.13184822610925398</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -14416,7 +14784,7 @@
         <v>0.13184822610925973</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -14431,7 +14799,7 @@
         <v>-24.702818528644997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -14455,7 +14823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -14470,7 +14838,7 @@
         <v>-53.581472946125984</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -14492,7 +14860,7 @@
         <v>-1.1304502757472847</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -14507,7 +14875,7 @@
         <v>-54.449589604348006</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -14522,7 +14890,7 @@
         <v>-31.701070117422006</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -14537,7 +14905,7 @@
         <v>-28.568761495276021</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -14552,7 +14920,7 @@
         <v>30.171705384092007</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -14567,7 +14935,7 @@
         <v>-28.383094518904983</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -14582,7 +14950,7 @@
         <v>-33.329459097884978</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -14597,7 +14965,7 @@
         <v>-29.613470104487988</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -14612,7 +14980,7 @@
         <v>-43.818478000493997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -14627,7 +14995,7 @@
         <v>-47.082745426550986</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -14642,7 +15010,7 @@
         <v>6.1470556095600273</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -14657,7 +15025,7 @@
         <v>-13.561606683044005</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -14672,7 +15040,7 @@
         <v>-39.56366008729097</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -14687,7 +15055,7 @@
         <v>-52.606525408154994</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -14702,7 +15070,7 @@
         <v>-98.511445294594012</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -14717,7 +15085,7 @@
         <v>-5.9462280966239973</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -14732,7 +15100,7 @@
         <v>-78.371237947937004</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -14747,7 +15115,7 @@
         <v>-8.1199307138439849</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -14762,7 +15130,7 @@
         <v>28.206457973849012</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -14777,7 +15145,7 @@
         <v>-66.680186658021995</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -14792,7 +15160,7 @@
         <v>-1.6165458395489907</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -14807,7 +15175,7 @@
         <v>-34.994851082610012</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -14822,7 +15190,7 @@
         <v>-59.724663748737015</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -14837,7 +15205,7 @@
         <v>-99.295034154107015</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -14852,7 +15220,7 @@
         <v>-90.244567816881982</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -14867,7 +15235,7 @@
         <v>-31.688420722862986</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -14882,7 +15250,7 @@
         <v>-66.92147353749499</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -14897,7 +15265,7 @@
         <v>-4.7493021605170043</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -14912,7 +15280,7 @@
         <v>20.631529343591978</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -14927,7 +15295,7 @@
         <v>-65.764515322172997</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -14942,7 +15310,7 @@
         <v>-10.537499769430013</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -14957,7 +15325,7 @@
         <v>-7.6891984452789757</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -14972,7 +15340,7 @@
         <v>-19.995950747105013</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -14987,7 +15355,7 @@
         <v>-75.228224916281022</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -15002,7 +15370,7 @@
         <v>-30.702997135510998</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -15017,7 +15385,7 @@
         <v>-56.207340124416987</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -15032,7 +15400,7 @@
         <v>4.6672314808139959</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -15047,7 +15415,7 @@
         <v>-47.654343878557029</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -15062,7 +15430,7 @@
         <v>-3.57830885571002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -15077,7 +15445,7 @@
         <v>-43.291468370708998</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -15092,7 +15460,7 @@
         <v>-4.484219443752977</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -15107,7 +15475,7 @@
         <v>-53.942608570602999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -15122,7 +15490,7 @@
         <v>-61.998745353139014</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -15137,7 +15505,7 @@
         <v>74.805523515047014</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -15152,7 +15520,7 @@
         <v>-29.046339805263983</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -15167,7 +15535,7 @@
         <v>-25.123259695232008</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -15182,7 +15550,7 @@
         <v>-17.194450275978994</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -15197,7 +15565,7 @@
         <v>-44.455589575224991</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -15212,7 +15580,7 @@
         <v>-26.302676426972994</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -15227,7 +15595,7 @@
         <v>-44.061281167559002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -15242,7 +15610,7 @@
         <v>-30.260123928227017</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -15257,7 +15625,7 @@
         <v>-0.42483138909599916</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -15272,7 +15640,7 @@
         <v>-43.042017710867981</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -15287,7 +15655,7 @@
         <v>39.31115675267003</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -15302,7 +15670,7 @@
         <v>-42.920691294503001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -15317,7 +15685,7 @@
         <v>-73.614772033416017</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -15332,7 +15700,7 @@
         <v>-25.503271322949985</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -15347,7 +15715,7 @@
         <v>-6.4822832505920189</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15362,7 +15730,7 @@
         <v>-19.706037028927</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -15377,7 +15745,7 @@
         <v>-41.426836521458</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -15392,7 +15760,7 @@
         <v>-60.443840158616013</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -15407,7 +15775,7 @@
         <v>1.4604212946420034</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -15422,7 +15790,7 @@
         <v>-35.540092500821999</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -15437,7 +15805,7 @@
         <v>-62.456511232715002</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -15452,7 +15820,7 @@
         <v>-34.103655781054016</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -15467,7 +15835,7 @@
         <v>-39.613853716284979</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -15482,7 +15850,7 @@
         <v>-11.456402916282002</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -15497,7 +15865,7 @@
         <v>-32.801596660185993</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -15512,7 +15880,7 @@
         <v>-4.5487364209569989</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -15527,7 +15895,7 @@
         <v>-58.048324243726995</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -15542,7 +15910,7 @@
         <v>-35.796262950690988</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -15557,7 +15925,7 @@
         <v>-45.855648308768991</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -15572,7 +15940,7 @@
         <v>-30.162934833455012</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -15587,7 +15955,7 @@
         <v>-48.041820441672996</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -15602,7 +15970,7 @@
         <v>-83.771810719504003</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -15617,7 +15985,7 @@
         <v>34.254940820586995</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -15632,7 +16000,7 @@
         <v>-39.088319633596029</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -15647,7 +16015,7 @@
         <v>-84.13478700914203</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -15662,7 +16030,7 @@
         <v>-44.629986298546015</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -15677,7 +16045,7 @@
         <v>-51.547033906777017</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>61</v>
       </c>
@@ -15692,7 +16060,7 @@
         <v>13.583803279520993</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -15707,7 +16075,7 @@
         <v>15.903458526137001</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -15722,7 +16090,7 @@
         <v>-8.6134662499030128</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -15737,7 +16105,7 @@
         <v>12.764710208790007</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>61</v>
       </c>
@@ -15752,7 +16120,7 @@
         <v>-34.663387216372001</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -15767,7 +16135,7 @@
         <v>29.399421529088983</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -15782,7 +16150,7 @@
         <v>-37.957725732119002</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -15797,7 +16165,7 @@
         <v>-14.896379638988009</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -15812,7 +16180,7 @@
         <v>-16.941544817893032</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>61</v>
       </c>
@@ -15827,7 +16195,7 @@
         <v>3.9104159091260158</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -15842,7 +16210,7 @@
         <v>-12.109322684780011</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -15857,7 +16225,7 @@
         <v>-14.802170682992994</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -15872,7 +16240,7 @@
         <v>-35.453642026972005</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -15887,7 +16255,7 @@
         <v>-10.921612289565019</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>61</v>
       </c>
@@ -15902,7 +16270,7 @@
         <v>31.079244341411993</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>61</v>
       </c>
@@ -15917,7 +16285,7 @@
         <v>8.0117261770070058</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>61</v>
       </c>
@@ -15932,7 +16300,7 @@
         <v>6.5247541433499805</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -15947,7 +16315,7 @@
         <v>25.876472125942996</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -15962,7 +16330,7 @@
         <v>-52.650952145676968</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -15977,7 +16345,7 @@
         <v>-38.725762828048971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -15992,7 +16360,7 @@
         <v>-2.8521827682810112</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -16007,7 +16375,7 @@
         <v>-1.6542480701949955</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>61</v>
       </c>
@@ -16022,7 +16390,7 @@
         <v>31.979637166397993</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>61</v>
       </c>
@@ -16037,7 +16405,7 @@
         <v>5.8663555397860137</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>61</v>
       </c>
@@ -16052,7 +16420,7 @@
         <v>29.625779313194982</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -16067,7 +16435,7 @@
         <v>-36.106137311818998</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -16082,7 +16450,7 @@
         <v>9.3739776360679912</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>61</v>
       </c>
@@ -16097,7 +16465,7 @@
         <v>-27.909797093575008</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -16112,7 +16480,7 @@
         <v>-4.2999313268329615</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -16127,7 +16495,7 @@
         <v>17.249672437876001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -16142,7 +16510,7 @@
         <v>4.3276050224520191</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -16157,7 +16525,7 @@
         <v>32.331010492620976</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -16172,7 +16540,7 @@
         <v>4.0725811788279884</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>61</v>
       </c>
@@ -16187,7 +16555,7 @@
         <v>-20.292341507309004</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>61</v>
       </c>
@@ -16202,7 +16570,7 @@
         <v>-32.151415674863017</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>61</v>
       </c>
@@ -16217,7 +16585,7 @@
         <v>-39.287738697999998</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>61</v>
       </c>
@@ -16232,7 +16600,7 @@
         <v>-44.444296060833977</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>61</v>
       </c>
@@ -16247,7 +16615,7 @@
         <v>-9.1035963440280057</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>61</v>
       </c>
@@ -16262,7 +16630,7 @@
         <v>-15.255582324201015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>61</v>
       </c>
@@ -16277,7 +16645,7 @@
         <v>-4.0536065435910018</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>61</v>
       </c>
@@ -16292,7 +16660,7 @@
         <v>-20.463842023489974</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>61</v>
       </c>
@@ -16307,7 +16675,7 @@
         <v>-7.525305145417974</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -16322,7 +16690,7 @@
         <v>34.893602791062989</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>61</v>
       </c>
@@ -16337,7 +16705,7 @@
         <v>31.557653240186994</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>61</v>
       </c>
@@ -16352,7 +16720,7 @@
         <v>-44.273286359216002</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>61</v>
       </c>
@@ -16367,7 +16735,7 @@
         <v>17.003537387558993</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -16382,7 +16750,7 @@
         <v>35.586355427603991</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>61</v>
       </c>
@@ -16397,7 +16765,7 @@
         <v>-41.032910721535018</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>61</v>
       </c>
@@ -16412,7 +16780,7 @@
         <v>38.46140970623</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>61</v>
       </c>
@@ -16427,7 +16795,7 @@
         <v>-25.096604087366984</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>61</v>
       </c>
@@ -16442,7 +16810,7 @@
         <v>34.12945080246098</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>61</v>
       </c>
@@ -16457,7 +16825,7 @@
         <v>-1.9177913332829917</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>61</v>
       </c>
@@ -16472,7 +16840,7 @@
         <v>-17.291213592326983</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>61</v>
       </c>
@@ -16487,7 +16855,7 @@
         <v>-44.72442319681403</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>61</v>
       </c>
@@ -16502,7 +16870,7 @@
         <v>-13.451678300054994</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>61</v>
       </c>
@@ -16517,7 +16885,7 @@
         <v>-30.378785071488977</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>61</v>
       </c>
@@ -16532,7 +16900,7 @@
         <v>31.908729961522027</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>61</v>
       </c>
@@ -16547,7 +16915,7 @@
         <v>-6.9589637041980268</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>61</v>
       </c>
@@ -16562,7 +16930,7 @@
         <v>-34.875488522330983</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>61</v>
       </c>
@@ -16577,7 +16945,7 @@
         <v>11.987729540080977</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>61</v>
       </c>
@@ -16592,7 +16960,7 @@
         <v>17.347562421114986</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>61</v>
       </c>
@@ -16607,7 +16975,7 @@
         <v>-18.635489633227991</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>61</v>
       </c>
@@ -16622,7 +16990,7 @@
         <v>-23.242050415733985</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>61</v>
       </c>
@@ -16637,7 +17005,7 @@
         <v>-3.8085785485710062</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>61</v>
       </c>
@@ -16652,7 +17020,7 @@
         <v>16.733846988720018</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>61</v>
       </c>
@@ -16667,7 +17035,7 @@
         <v>-40.431887464224019</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>61</v>
       </c>
@@ -16682,7 +17050,7 @@
         <v>30.034681627340035</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>61</v>
       </c>
@@ -16697,7 +17065,7 @@
         <v>9.1967955057709787</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>61</v>
       </c>
@@ -16712,7 +17080,7 @@
         <v>-51.351762092733026</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>61</v>
       </c>
@@ -16727,7 +17095,7 @@
         <v>9.7949729144360163</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>61</v>
       </c>
@@ -16742,7 +17110,7 @@
         <v>-15.227630313940978</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>61</v>
       </c>
@@ -16757,7 +17125,7 @@
         <v>20.256387467778012</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>61</v>
       </c>
@@ -16772,7 +17140,7 @@
         <v>42.386685410767996</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>61</v>
       </c>
@@ -16787,7 +17155,7 @@
         <v>-4.11499416359203</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -16802,7 +17170,7 @@
         <v>-37.025107250118992</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>61</v>
       </c>
@@ -16817,7 +17185,7 @@
         <v>-10.076123880935</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>61</v>
       </c>
@@ -16832,7 +17200,7 @@
         <v>-32.990777893869023</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>61</v>
       </c>
@@ -16847,7 +17215,7 @@
         <v>-17.155148793621009</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>61</v>
       </c>
@@ -16862,7 +17230,7 @@
         <v>-47.187802769466003</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>61</v>
       </c>
@@ -16877,7 +17245,7 @@
         <v>20.750637702651034</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>61</v>
       </c>
@@ -16892,7 +17260,7 @@
         <v>-24.680668056244002</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>61</v>
       </c>
@@ -16907,7 +17275,7 @@
         <v>-11.149487613292024</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>61</v>
       </c>
@@ -16922,7 +17290,7 @@
         <v>-8.5212037938700291</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>61</v>
       </c>
@@ -16937,7 +17305,7 @@
         <v>-6.2325907451759974</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>61</v>
       </c>
@@ -16952,7 +17320,7 @@
         <v>20.130710629824023</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>61</v>
       </c>
@@ -16967,7 +17335,7 @@
         <v>-9.2231698388370091</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>61</v>
       </c>
@@ -16982,7 +17350,7 @@
         <v>37.573239981433005</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>61</v>
       </c>
@@ -16997,7 +17365,7 @@
         <v>17.495894946644967</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>61</v>
       </c>
@@ -17012,7 +17380,7 @@
         <v>-8.4339778738799964</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>61</v>
       </c>
@@ -17027,7 +17395,7 @@
         <v>25.810795944596038</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>61</v>
       </c>
@@ -17042,7 +17410,7 @@
         <v>-12.947798479498005</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>61</v>
       </c>
@@ -17057,7 +17425,7 @@
         <v>27.263209227455974</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>61</v>
       </c>
@@ -17072,7 +17440,7 @@
         <v>18.707201990403007</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>61</v>
       </c>
@@ -17087,7 +17455,7 @@
         <v>6.2456139581789785</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>61</v>
       </c>
@@ -17102,7 +17470,7 @@
         <v>-5.2704801135159869</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>61</v>
       </c>
@@ -17117,7 +17485,7 @@
         <v>30.498828743628991</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>61</v>
       </c>
@@ -17132,7 +17500,7 @@
         <v>-11.188277219340989</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>61</v>
       </c>
@@ -17147,7 +17515,7 @@
         <v>-29.528718333391026</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>61</v>
       </c>
@@ -17162,7 +17530,7 @@
         <v>-2.5102991395820027</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>61</v>
       </c>
@@ -17187,4 +17555,115 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDE4884-690D-438D-8806-4D367EF219C1}">
+  <dimension ref="B3:Q132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="S103" sqref="S103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.T.INV(0.05,99)</f>
+        <v>-1.6603911560169928</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f>_xlfn.T.INV(0.95,99)</f>
+        <v>1.6603911560169928</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38">
+        <f>_xlfn.T.INV.2T(0.05,99)</f>
+        <v>1.9842169515864165</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C68" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C71" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="3">
+        <f>_xlfn.T.DIST(2.4,99,TRUE)</f>
+        <v>0.99086771656783168</v>
+      </c>
+      <c r="Q72">
+        <f>_xlfn.T.DIST(2.4,99,FALSE)</f>
+        <v>2.3539575321300292E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C101" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="3">
+        <f>_xlfn.T.DIST.RT(2.4,99)</f>
+        <v>9.1322834321683217E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C131" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="3">
+        <f>_xlfn.T.DIST.2T(2.4,99)</f>
+        <v>1.8264566864336643E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/q1_dataFiles/06_Signifikanztests.xlsx
+++ b/q1_dataFiles/06_Signifikanztests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engelmann6\Desktop\Quanti Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Google Drive\Uni\Psych\Lehre\Quanti\QuantiWebsite\_site\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC11923-CC4A-4836-B5EF-092E35E1BCBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA46E823-A45D-496F-95EA-A91C9066A0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" tabRatio="788" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einstichproben-t-Test Aufgabe" sheetId="11" r:id="rId1"/>
@@ -560,7 +560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -736,7 +736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2024045727"/>
@@ -784,7 +784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -860,7 +860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1036,7 +1036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2024045727"/>
@@ -1084,7 +1084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1171,7 +1171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1332,7 +1332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339198400"/>
@@ -1427,7 +1427,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1458,7 +1458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562546848"/>
@@ -1507,7 +1507,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1594,7 +1594,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1755,7 +1755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339198400"/>
@@ -1850,7 +1850,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1881,7 +1881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562546848"/>
@@ -1930,7 +1930,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2004,7 +2004,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2261,7 +2261,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2293,7 +2293,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="570355616"/>
@@ -2387,7 +2387,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2418,7 +2418,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="662612544"/>
@@ -2466,7 +2466,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2540,7 +2540,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2797,7 +2797,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2829,7 +2829,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="570355616"/>
@@ -2923,7 +2923,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2954,7 +2954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="662612544"/>
@@ -3002,7 +3002,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3084,7 +3084,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3300,7 +3300,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="490342368"/>
@@ -3348,7 +3348,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7832,6 +7832,229 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2970494-9106-4554-9050-B5FCC1ECA72F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="4676775"/>
+          <a:ext cx="5610225" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Anmerkung:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>im Video wurde an hier dann auch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> der einseitige Fall (gerichtet) demonstriert und die Werte fafür berechnet. Die ursprüngliche Aufgabenstellung geht aber von "ungerichtet" aus und die in der Lösung angegeben Werte sind die korrekten Werte für eben diesen Fall. Wir haben uns entschieden, hier in der Lösung doch diese Ergebnisse zu belassen.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerade Verbindung mit Pfeil 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60924B5-4CD3-4FDA-8632-53B2583F0CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11010900" y="4162425"/>
+          <a:ext cx="523875" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9661C5C2-7F13-4D2E-91A4-953F185070B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11077575" y="3724275"/>
+          <a:ext cx="514350" cy="914401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8877,9 +9100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>293868</xdr:colOff>
+      <xdr:colOff>297043</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>47408</xdr:rowOff>
+      <xdr:rowOff>50583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8926,7 +9149,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>312849</xdr:colOff>
+      <xdr:colOff>316024</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -9073,9 +9296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:colOff>279399</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>106753</xdr:rowOff>
+      <xdr:rowOff>103578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9100,55 +9323,6 @@
         <a:xfrm>
           <a:off x="3178569" y="23545800"/>
           <a:ext cx="9530955" cy="4970853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>158947</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>627323</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>124756</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Grafik 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1927FC1-C3B5-49D3-A970-C31D6B91A021}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14141450" y="12646222"/>
-          <a:ext cx="10345998" cy="5214084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9430,21 +9604,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB57AD-266E-49A4-8AD8-E3A4FE3EABD6}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="24.1796875" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -9454,7 +9628,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -9464,41 +9638,41 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -9512,7 +9686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>110</v>
       </c>
@@ -9528,7 +9702,7 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>81</v>
       </c>
@@ -9544,7 +9718,7 @@
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>109</v>
       </c>
@@ -9553,7 +9727,7 @@
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>95</v>
       </c>
@@ -9561,7 +9735,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>79</v>
       </c>
@@ -9579,7 +9753,7 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>93</v>
       </c>
@@ -9597,12 +9771,12 @@
       </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>92</v>
       </c>
@@ -9613,7 +9787,7 @@
       </c>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>82</v>
       </c>
@@ -9624,7 +9798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>104</v>
       </c>
@@ -9641,7 +9815,7 @@
       </c>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>76</v>
       </c>
@@ -9653,7 +9827,7 @@
         <v>87.283879715882065</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -9665,12 +9839,12 @@
         <v>96.556120284117938</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>121</v>
       </c>
@@ -9687,7 +9861,7 @@
       </c>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>100</v>
       </c>
@@ -9702,7 +9876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>86</v>
       </c>
@@ -9712,173 +9886,173 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>76</v>
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>130</v>
       </c>
@@ -9897,21 +10071,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="24.1796875" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -9921,7 +10095,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -9931,41 +10105,41 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -9979,7 +10153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>110</v>
       </c>
@@ -9998,7 +10172,7 @@
         <v>-8.0799999999999983</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>81</v>
       </c>
@@ -10017,7 +10191,7 @@
         <v>-3.5023612246707581</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>109</v>
       </c>
@@ -10029,7 +10203,7 @@
         <v>-2.0095752371292388</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>95</v>
       </c>
@@ -10037,7 +10211,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>79</v>
       </c>
@@ -10058,7 +10232,7 @@
         <v>9.942699456811008E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>93</v>
       </c>
@@ -10078,12 +10252,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>92</v>
       </c>
@@ -10096,7 +10270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>82</v>
       </c>
@@ -10107,7 +10281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>104</v>
       </c>
@@ -10126,7 +10300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>76</v>
       </c>
@@ -10138,7 +10312,7 @@
         <v>87.283879715882065</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -10150,12 +10324,12 @@
         <v>96.556120284117938</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>121</v>
       </c>
@@ -10175,7 +10349,7 @@
         <v>-0.49530867442590287</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>100</v>
       </c>
@@ -10190,7 +10364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>86</v>
       </c>
@@ -10200,173 +10374,173 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>76</v>
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>130</v>
       </c>
@@ -10387,21 +10561,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -10416,7 +10590,7 @@
       </c>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10433,7 +10607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -10455,7 +10629,7 @@
         <v>212.93350000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10477,7 +10651,7 @@
         <v>37.865651185960765</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10497,7 +10671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -10519,7 +10693,7 @@
         <v>17.721670263501164</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10530,7 +10704,7 @@
         <v>271.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -10541,7 +10715,7 @@
         <v>261.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -10555,7 +10729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -10571,7 +10745,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -10590,7 +10764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -10606,7 +10780,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -10622,7 +10796,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -10635,7 +10809,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -10651,7 +10825,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -10667,7 +10841,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -10683,7 +10857,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -10699,7 +10873,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -10710,7 +10884,7 @@
         <v>232.43</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -10724,7 +10898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -10740,7 +10914,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -10755,7 +10929,7 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
@@ -10771,7 +10945,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -10787,7 +10961,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -10803,7 +10977,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
@@ -10816,7 +10990,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -10827,7 +11001,7 @@
         <v>187.12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -10838,7 +11012,7 @@
         <v>252.96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -10849,7 +11023,7 @@
         <v>160.09</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -10860,7 +11034,7 @@
         <v>169.96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -10871,7 +11045,7 @@
         <v>177.22</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -10882,7 +11056,7 @@
         <v>259.32</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -10893,7 +11067,7 @@
         <v>258.26</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -10907,7 +11081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -10918,7 +11092,7 @@
         <v>285.05</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -10929,7 +11103,7 @@
         <v>190.14</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -10940,7 +11114,7 @@
         <v>192.32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -10951,7 +11125,7 @@
         <v>225.37</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -10962,7 +11136,7 @@
         <v>179.17</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
@@ -10973,7 +11147,7 @@
         <v>222.03</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -11006,23 +11180,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3ECF6-EB88-41FA-9CD3-A49A1F06F6C3}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -11037,7 +11213,7 @@
       </c>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11054,7 +11230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -11076,7 +11252,7 @@
         <v>212.93350000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11098,7 +11274,7 @@
         <v>37.865651185960765</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -11118,7 +11294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -11140,7 +11316,7 @@
         <v>17.721670263501164</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -11151,7 +11327,7 @@
         <v>271.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -11162,7 +11338,7 @@
         <v>261.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -11176,7 +11352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -11195,7 +11371,7 @@
       </c>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -11217,7 +11393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -11236,7 +11412,7 @@
       </c>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -11255,7 +11431,7 @@
       </c>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -11268,7 +11444,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -11287,7 +11463,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -11306,7 +11482,7 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -11324,7 +11500,7 @@
       </c>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -11342,7 +11518,7 @@
       </c>
       <c r="H25" s="29"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -11353,7 +11529,7 @@
         <v>232.43</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -11367,7 +11543,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -11386,7 +11562,7 @@
       </c>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -11407,7 +11583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
@@ -11426,7 +11602,7 @@
       </c>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -11445,7 +11621,7 @@
       </c>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -11464,7 +11640,7 @@
       </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
@@ -11477,7 +11653,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -11488,7 +11664,7 @@
         <v>187.12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -11499,7 +11675,7 @@
         <v>252.96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -11510,7 +11686,7 @@
         <v>160.09</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -11521,7 +11697,7 @@
         <v>169.96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -11532,7 +11708,7 @@
         <v>177.22</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -11543,7 +11719,7 @@
         <v>259.32</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -11554,7 +11730,7 @@
         <v>258.26</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -11568,7 +11744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -11579,7 +11755,7 @@
         <v>285.05</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -11590,7 +11766,7 @@
         <v>190.14</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -11601,7 +11777,7 @@
         <v>192.32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -11612,7 +11788,7 @@
         <v>225.37</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -11623,7 +11799,7 @@
         <v>179.17</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
@@ -11634,7 +11810,7 @@
         <v>222.03</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -11671,28 +11847,28 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>38</v>
       </c>
@@ -11706,7 +11882,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -11732,7 +11908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -11763,7 +11939,7 @@
         <v>251.05738476906504</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -11794,7 +11970,7 @@
         <v>39.311294996523067</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -11821,7 +11997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -11852,7 +12028,7 @@
         <v>7.8002137920915349</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -11864,7 +12040,7 @@
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -11876,7 +12052,7 @@
       </c>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -11894,7 +12070,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -11913,7 +12089,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -11931,7 +12107,7 @@
       <c r="H19" s="19"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -11949,7 +12125,7 @@
       <c r="H20" s="19"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -11967,7 +12143,7 @@
       <c r="H21" s="19"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -11985,7 +12161,7 @@
       <c r="H22" s="23"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -11997,7 +12173,7 @@
       </c>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -12014,7 +12190,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -12031,7 +12207,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -12048,7 +12224,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -12065,7 +12241,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -12077,7 +12253,7 @@
       </c>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -12094,7 +12270,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -12106,7 +12282,7 @@
       </c>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -12123,7 +12299,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -12135,7 +12311,7 @@
       </c>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -12147,7 +12323,7 @@
       </c>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -12159,7 +12335,7 @@
       </c>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -12171,7 +12347,7 @@
       </c>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -12183,7 +12359,7 @@
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -12195,7 +12371,7 @@
       </c>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -12207,7 +12383,7 @@
       </c>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -12219,7 +12395,7 @@
       </c>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -12231,7 +12407,7 @@
       </c>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -12243,7 +12419,7 @@
       </c>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -12255,7 +12431,7 @@
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -12267,7 +12443,7 @@
       </c>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -12279,7 +12455,7 @@
       </c>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -12291,7 +12467,7 @@
       </c>
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -12303,7 +12479,7 @@
       </c>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -12315,7 +12491,7 @@
       </c>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -12327,7 +12503,7 @@
       </c>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -12339,7 +12515,7 @@
       </c>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -12351,7 +12527,7 @@
       </c>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -12363,7 +12539,7 @@
       </c>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -12375,7 +12551,7 @@
       </c>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -12387,7 +12563,7 @@
       </c>
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -12399,7 +12575,7 @@
       </c>
       <c r="D54" s="15"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -12411,7 +12587,7 @@
       </c>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -12423,7 +12599,7 @@
       </c>
       <c r="D56" s="15"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -12435,7 +12611,7 @@
       </c>
       <c r="D57" s="15"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -12447,7 +12623,7 @@
       </c>
       <c r="D58" s="15"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -12459,7 +12635,7 @@
       </c>
       <c r="D59" s="15"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -12471,7 +12647,7 @@
       </c>
       <c r="D60" s="15"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12483,7 +12659,7 @@
       </c>
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -12495,7 +12671,7 @@
       </c>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -12507,7 +12683,7 @@
       </c>
       <c r="D63" s="15"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -12519,7 +12695,7 @@
       </c>
       <c r="D64" s="15"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -12531,7 +12707,7 @@
       </c>
       <c r="D65" s="15"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -12543,7 +12719,7 @@
       </c>
       <c r="D66" s="15"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -12555,7 +12731,7 @@
       </c>
       <c r="D67" s="15"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -12567,7 +12743,7 @@
       </c>
       <c r="D68" s="15"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -12579,7 +12755,7 @@
       </c>
       <c r="D69" s="15"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -12591,7 +12767,7 @@
       </c>
       <c r="D70" s="15"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -12603,7 +12779,7 @@
       </c>
       <c r="D71" s="15"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -12615,7 +12791,7 @@
       </c>
       <c r="D72" s="15"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -12627,7 +12803,7 @@
       </c>
       <c r="D73" s="15"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -12639,7 +12815,7 @@
       </c>
       <c r="D74" s="15"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -12651,7 +12827,7 @@
       </c>
       <c r="D75" s="15"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -12663,7 +12839,7 @@
       </c>
       <c r="D76" s="15"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -12675,7 +12851,7 @@
       </c>
       <c r="D77" s="15"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -12687,7 +12863,7 @@
       </c>
       <c r="D78" s="15"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -12699,7 +12875,7 @@
       </c>
       <c r="D79" s="15"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -12711,7 +12887,7 @@
       </c>
       <c r="D80" s="15"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -12723,7 +12899,7 @@
       </c>
       <c r="D81" s="15"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -12735,7 +12911,7 @@
       </c>
       <c r="D82" s="15"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -12747,7 +12923,7 @@
       </c>
       <c r="D83" s="15"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -12759,7 +12935,7 @@
       </c>
       <c r="D84" s="15"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -12771,7 +12947,7 @@
       </c>
       <c r="D85" s="15"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -12783,7 +12959,7 @@
       </c>
       <c r="D86" s="15"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -12795,7 +12971,7 @@
       </c>
       <c r="D87" s="15"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -12807,7 +12983,7 @@
       </c>
       <c r="D88" s="15"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12819,7 +12995,7 @@
       </c>
       <c r="D89" s="15"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -12831,7 +13007,7 @@
       </c>
       <c r="D90" s="15"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -12843,7 +13019,7 @@
       </c>
       <c r="D91" s="15"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -12855,7 +13031,7 @@
       </c>
       <c r="D92" s="15"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -12867,7 +13043,7 @@
       </c>
       <c r="D93" s="15"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -12879,7 +13055,7 @@
       </c>
       <c r="D94" s="15"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -12891,7 +13067,7 @@
       </c>
       <c r="D95" s="15"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -12903,7 +13079,7 @@
       </c>
       <c r="D96" s="15"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -12915,7 +13091,7 @@
       </c>
       <c r="D97" s="15"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -12927,7 +13103,7 @@
       </c>
       <c r="D98" s="15"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -12939,7 +13115,7 @@
       </c>
       <c r="D99" s="15"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -12951,7 +13127,7 @@
       </c>
       <c r="D100" s="15"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -12963,7 +13139,7 @@
       </c>
       <c r="D101" s="15"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -12975,7 +13151,7 @@
       </c>
       <c r="D102" s="15"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -12987,7 +13163,7 @@
       </c>
       <c r="D103" s="15"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -12999,7 +13175,7 @@
       </c>
       <c r="D104" s="15"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -13011,7 +13187,7 @@
       </c>
       <c r="D105" s="15"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -13023,7 +13199,7 @@
       </c>
       <c r="D106" s="15"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -13035,7 +13211,7 @@
       </c>
       <c r="D107" s="15"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -13047,7 +13223,7 @@
       </c>
       <c r="D108" s="15"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -13059,7 +13235,7 @@
       </c>
       <c r="D109" s="15"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -13071,7 +13247,7 @@
       </c>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>61</v>
       </c>
@@ -13083,7 +13259,7 @@
       </c>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -13095,7 +13271,7 @@
       </c>
       <c r="D112" s="15"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -13107,7 +13283,7 @@
       </c>
       <c r="D113" s="15"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -13119,7 +13295,7 @@
       </c>
       <c r="D114" s="15"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>61</v>
       </c>
@@ -13131,7 +13307,7 @@
       </c>
       <c r="D115" s="15"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -13143,7 +13319,7 @@
       </c>
       <c r="D116" s="15"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -13155,7 +13331,7 @@
       </c>
       <c r="D117" s="15"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -13167,7 +13343,7 @@
       </c>
       <c r="D118" s="15"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -13179,7 +13355,7 @@
       </c>
       <c r="D119" s="15"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>61</v>
       </c>
@@ -13191,7 +13367,7 @@
       </c>
       <c r="D120" s="15"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -13203,7 +13379,7 @@
       </c>
       <c r="D121" s="15"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -13215,7 +13391,7 @@
       </c>
       <c r="D122" s="15"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -13227,7 +13403,7 @@
       </c>
       <c r="D123" s="15"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -13239,7 +13415,7 @@
       </c>
       <c r="D124" s="15"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>61</v>
       </c>
@@ -13251,7 +13427,7 @@
       </c>
       <c r="D125" s="15"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>61</v>
       </c>
@@ -13263,7 +13439,7 @@
       </c>
       <c r="D126" s="15"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>61</v>
       </c>
@@ -13275,7 +13451,7 @@
       </c>
       <c r="D127" s="15"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -13287,7 +13463,7 @@
       </c>
       <c r="D128" s="15"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -13299,7 +13475,7 @@
       </c>
       <c r="D129" s="15"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -13311,7 +13487,7 @@
       </c>
       <c r="D130" s="15"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -13323,7 +13499,7 @@
       </c>
       <c r="D131" s="15"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -13335,7 +13511,7 @@
       </c>
       <c r="D132" s="15"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>61</v>
       </c>
@@ -13347,7 +13523,7 @@
       </c>
       <c r="D133" s="15"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>61</v>
       </c>
@@ -13359,7 +13535,7 @@
       </c>
       <c r="D134" s="15"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>61</v>
       </c>
@@ -13371,7 +13547,7 @@
       </c>
       <c r="D135" s="15"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -13383,7 +13559,7 @@
       </c>
       <c r="D136" s="15"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -13395,7 +13571,7 @@
       </c>
       <c r="D137" s="15"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>61</v>
       </c>
@@ -13407,7 +13583,7 @@
       </c>
       <c r="D138" s="15"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -13419,7 +13595,7 @@
       </c>
       <c r="D139" s="15"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -13431,7 +13607,7 @@
       </c>
       <c r="D140" s="15"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -13443,7 +13619,7 @@
       </c>
       <c r="D141" s="15"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -13455,7 +13631,7 @@
       </c>
       <c r="D142" s="15"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -13467,7 +13643,7 @@
       </c>
       <c r="D143" s="15"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>61</v>
       </c>
@@ -13479,7 +13655,7 @@
       </c>
       <c r="D144" s="15"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>61</v>
       </c>
@@ -13491,7 +13667,7 @@
       </c>
       <c r="D145" s="15"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>61</v>
       </c>
@@ -13503,7 +13679,7 @@
       </c>
       <c r="D146" s="15"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>61</v>
       </c>
@@ -13515,7 +13691,7 @@
       </c>
       <c r="D147" s="15"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>61</v>
       </c>
@@ -13527,7 +13703,7 @@
       </c>
       <c r="D148" s="15"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>61</v>
       </c>
@@ -13539,7 +13715,7 @@
       </c>
       <c r="D149" s="15"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>61</v>
       </c>
@@ -13551,7 +13727,7 @@
       </c>
       <c r="D150" s="15"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>61</v>
       </c>
@@ -13563,7 +13739,7 @@
       </c>
       <c r="D151" s="15"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>61</v>
       </c>
@@ -13575,7 +13751,7 @@
       </c>
       <c r="D152" s="15"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -13587,7 +13763,7 @@
       </c>
       <c r="D153" s="15"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>61</v>
       </c>
@@ -13599,7 +13775,7 @@
       </c>
       <c r="D154" s="15"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>61</v>
       </c>
@@ -13611,7 +13787,7 @@
       </c>
       <c r="D155" s="15"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>61</v>
       </c>
@@ -13623,7 +13799,7 @@
       </c>
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -13635,7 +13811,7 @@
       </c>
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>61</v>
       </c>
@@ -13647,7 +13823,7 @@
       </c>
       <c r="D158" s="15"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>61</v>
       </c>
@@ -13659,7 +13835,7 @@
       </c>
       <c r="D159" s="15"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>61</v>
       </c>
@@ -13671,7 +13847,7 @@
       </c>
       <c r="D160" s="15"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>61</v>
       </c>
@@ -13683,7 +13859,7 @@
       </c>
       <c r="D161" s="15"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>61</v>
       </c>
@@ -13695,7 +13871,7 @@
       </c>
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>61</v>
       </c>
@@ -13707,7 +13883,7 @@
       </c>
       <c r="D163" s="15"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>61</v>
       </c>
@@ -13719,7 +13895,7 @@
       </c>
       <c r="D164" s="15"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>61</v>
       </c>
@@ -13731,7 +13907,7 @@
       </c>
       <c r="D165" s="15"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>61</v>
       </c>
@@ -13743,7 +13919,7 @@
       </c>
       <c r="D166" s="15"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>61</v>
       </c>
@@ -13755,7 +13931,7 @@
       </c>
       <c r="D167" s="15"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>61</v>
       </c>
@@ -13767,7 +13943,7 @@
       </c>
       <c r="D168" s="15"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>61</v>
       </c>
@@ -13779,7 +13955,7 @@
       </c>
       <c r="D169" s="15"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>61</v>
       </c>
@@ -13791,7 +13967,7 @@
       </c>
       <c r="D170" s="15"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>61</v>
       </c>
@@ -13803,7 +13979,7 @@
       </c>
       <c r="D171" s="15"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>61</v>
       </c>
@@ -13815,7 +13991,7 @@
       </c>
       <c r="D172" s="15"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>61</v>
       </c>
@@ -13827,7 +14003,7 @@
       </c>
       <c r="D173" s="15"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>61</v>
       </c>
@@ -13839,7 +14015,7 @@
       </c>
       <c r="D174" s="15"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>61</v>
       </c>
@@ -13851,7 +14027,7 @@
       </c>
       <c r="D175" s="15"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>61</v>
       </c>
@@ -13863,7 +14039,7 @@
       </c>
       <c r="D176" s="15"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>61</v>
       </c>
@@ -13875,7 +14051,7 @@
       </c>
       <c r="D177" s="15"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>61</v>
       </c>
@@ -13887,7 +14063,7 @@
       </c>
       <c r="D178" s="15"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>61</v>
       </c>
@@ -13899,7 +14075,7 @@
       </c>
       <c r="D179" s="15"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>61</v>
       </c>
@@ -13911,7 +14087,7 @@
       </c>
       <c r="D180" s="15"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>61</v>
       </c>
@@ -13923,7 +14099,7 @@
       </c>
       <c r="D181" s="15"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>61</v>
       </c>
@@ -13935,7 +14111,7 @@
       </c>
       <c r="D182" s="15"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>61</v>
       </c>
@@ -13947,7 +14123,7 @@
       </c>
       <c r="D183" s="15"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>61</v>
       </c>
@@ -13959,7 +14135,7 @@
       </c>
       <c r="D184" s="15"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -13971,7 +14147,7 @@
       </c>
       <c r="D185" s="15"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>61</v>
       </c>
@@ -13983,7 +14159,7 @@
       </c>
       <c r="D186" s="15"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>61</v>
       </c>
@@ -13995,7 +14171,7 @@
       </c>
       <c r="D187" s="15"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>61</v>
       </c>
@@ -14007,7 +14183,7 @@
       </c>
       <c r="D188" s="15"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>61</v>
       </c>
@@ -14019,7 +14195,7 @@
       </c>
       <c r="D189" s="15"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>61</v>
       </c>
@@ -14031,7 +14207,7 @@
       </c>
       <c r="D190" s="15"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>61</v>
       </c>
@@ -14043,7 +14219,7 @@
       </c>
       <c r="D191" s="15"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>61</v>
       </c>
@@ -14055,7 +14231,7 @@
       </c>
       <c r="D192" s="15"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>61</v>
       </c>
@@ -14067,7 +14243,7 @@
       </c>
       <c r="D193" s="15"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>61</v>
       </c>
@@ -14079,7 +14255,7 @@
       </c>
       <c r="D194" s="15"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>61</v>
       </c>
@@ -14091,7 +14267,7 @@
       </c>
       <c r="D195" s="15"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>61</v>
       </c>
@@ -14103,7 +14279,7 @@
       </c>
       <c r="D196" s="15"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>61</v>
       </c>
@@ -14115,7 +14291,7 @@
       </c>
       <c r="D197" s="15"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>61</v>
       </c>
@@ -14127,7 +14303,7 @@
       </c>
       <c r="D198" s="15"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>61</v>
       </c>
@@ -14139,7 +14315,7 @@
       </c>
       <c r="D199" s="15"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>61</v>
       </c>
@@ -14151,7 +14327,7 @@
       </c>
       <c r="D200" s="15"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>61</v>
       </c>
@@ -14163,7 +14339,7 @@
       </c>
       <c r="D201" s="15"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>61</v>
       </c>
@@ -14175,7 +14351,7 @@
       </c>
       <c r="D202" s="15"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>61</v>
       </c>
@@ -14187,7 +14363,7 @@
       </c>
       <c r="D203" s="15"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>61</v>
       </c>
@@ -14199,7 +14375,7 @@
       </c>
       <c r="D204" s="15"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>61</v>
       </c>
@@ -14211,7 +14387,7 @@
       </c>
       <c r="D205" s="15"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>61</v>
       </c>
@@ -14223,7 +14399,7 @@
       </c>
       <c r="D206" s="15"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>61</v>
       </c>
@@ -14235,7 +14411,7 @@
       </c>
       <c r="D207" s="15"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>61</v>
       </c>
@@ -14247,7 +14423,7 @@
       </c>
       <c r="D208" s="15"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>61</v>
       </c>
@@ -14259,7 +14435,7 @@
       </c>
       <c r="D209" s="15"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>61</v>
       </c>
@@ -14291,28 +14467,28 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>38</v>
       </c>
@@ -14326,7 +14502,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -14352,7 +14528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -14386,7 +14562,7 @@
         <v>251.05738476906504</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -14420,7 +14596,7 @@
         <v>39.311294996523067</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -14450,7 +14626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -14484,7 +14660,7 @@
         <v>7.8002137920915349</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -14499,7 +14675,7 @@
         <v>-58.735116379513983</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -14514,7 +14690,7 @@
         <v>-51.867028938690964</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -14535,7 +14711,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -14557,7 +14733,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -14584,7 +14760,7 @@
       </c>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -14611,7 +14787,7 @@
       </c>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -14638,7 +14814,7 @@
       </c>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -14665,7 +14841,7 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -14680,7 +14856,7 @@
         <v>-81.025231675225001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -14706,7 +14882,7 @@
         <v>-1.5194036221723293</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -14732,7 +14908,7 @@
         <v>1.9842169515864165</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -14758,7 +14934,7 @@
         <v>0.13184822610925398</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -14784,7 +14960,7 @@
         <v>0.13184822610925973</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -14799,7 +14975,7 @@
         <v>-24.702818528644997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -14823,7 +14999,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -14838,7 +15014,7 @@
         <v>-53.581472946125984</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -14860,7 +15036,7 @@
         <v>-1.1304502757472847</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -14875,7 +15051,7 @@
         <v>-54.449589604348006</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -14890,7 +15066,7 @@
         <v>-31.701070117422006</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -14905,7 +15081,7 @@
         <v>-28.568761495276021</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -14920,7 +15096,7 @@
         <v>30.171705384092007</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -14935,7 +15111,7 @@
         <v>-28.383094518904983</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -14950,7 +15126,7 @@
         <v>-33.329459097884978</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -14965,7 +15141,7 @@
         <v>-29.613470104487988</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -14980,7 +15156,7 @@
         <v>-43.818478000493997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -14995,7 +15171,7 @@
         <v>-47.082745426550986</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -15010,7 +15186,7 @@
         <v>6.1470556095600273</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -15025,7 +15201,7 @@
         <v>-13.561606683044005</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -15040,7 +15216,7 @@
         <v>-39.56366008729097</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -15055,7 +15231,7 @@
         <v>-52.606525408154994</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -15070,7 +15246,7 @@
         <v>-98.511445294594012</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -15085,7 +15261,7 @@
         <v>-5.9462280966239973</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -15100,7 +15276,7 @@
         <v>-78.371237947937004</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -15115,7 +15291,7 @@
         <v>-8.1199307138439849</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -15130,7 +15306,7 @@
         <v>28.206457973849012</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -15145,7 +15321,7 @@
         <v>-66.680186658021995</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -15160,7 +15336,7 @@
         <v>-1.6165458395489907</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -15175,7 +15351,7 @@
         <v>-34.994851082610012</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -15190,7 +15366,7 @@
         <v>-59.724663748737015</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -15205,7 +15381,7 @@
         <v>-99.295034154107015</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -15220,7 +15396,7 @@
         <v>-90.244567816881982</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -15235,7 +15411,7 @@
         <v>-31.688420722862986</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -15250,7 +15426,7 @@
         <v>-66.92147353749499</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -15265,7 +15441,7 @@
         <v>-4.7493021605170043</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -15280,7 +15456,7 @@
         <v>20.631529343591978</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -15295,7 +15471,7 @@
         <v>-65.764515322172997</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -15310,7 +15486,7 @@
         <v>-10.537499769430013</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -15325,7 +15501,7 @@
         <v>-7.6891984452789757</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -15340,7 +15516,7 @@
         <v>-19.995950747105013</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -15355,7 +15531,7 @@
         <v>-75.228224916281022</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -15370,7 +15546,7 @@
         <v>-30.702997135510998</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -15385,7 +15561,7 @@
         <v>-56.207340124416987</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -15400,7 +15576,7 @@
         <v>4.6672314808139959</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -15415,7 +15591,7 @@
         <v>-47.654343878557029</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -15430,7 +15606,7 @@
         <v>-3.57830885571002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -15445,7 +15621,7 @@
         <v>-43.291468370708998</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -15460,7 +15636,7 @@
         <v>-4.484219443752977</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -15475,7 +15651,7 @@
         <v>-53.942608570602999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -15490,7 +15666,7 @@
         <v>-61.998745353139014</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -15505,7 +15681,7 @@
         <v>74.805523515047014</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -15520,7 +15696,7 @@
         <v>-29.046339805263983</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -15535,7 +15711,7 @@
         <v>-25.123259695232008</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -15550,7 +15726,7 @@
         <v>-17.194450275978994</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -15565,7 +15741,7 @@
         <v>-44.455589575224991</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -15580,7 +15756,7 @@
         <v>-26.302676426972994</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -15595,7 +15771,7 @@
         <v>-44.061281167559002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -15610,7 +15786,7 @@
         <v>-30.260123928227017</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -15625,7 +15801,7 @@
         <v>-0.42483138909599916</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -15640,7 +15816,7 @@
         <v>-43.042017710867981</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -15655,7 +15831,7 @@
         <v>39.31115675267003</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -15670,7 +15846,7 @@
         <v>-42.920691294503001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -15685,7 +15861,7 @@
         <v>-73.614772033416017</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -15700,7 +15876,7 @@
         <v>-25.503271322949985</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -15715,7 +15891,7 @@
         <v>-6.4822832505920189</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15730,7 +15906,7 @@
         <v>-19.706037028927</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -15745,7 +15921,7 @@
         <v>-41.426836521458</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -15760,7 +15936,7 @@
         <v>-60.443840158616013</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -15775,7 +15951,7 @@
         <v>1.4604212946420034</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -15790,7 +15966,7 @@
         <v>-35.540092500821999</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -15805,7 +15981,7 @@
         <v>-62.456511232715002</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -15820,7 +15996,7 @@
         <v>-34.103655781054016</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -15835,7 +16011,7 @@
         <v>-39.613853716284979</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -15850,7 +16026,7 @@
         <v>-11.456402916282002</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -15865,7 +16041,7 @@
         <v>-32.801596660185993</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -15880,7 +16056,7 @@
         <v>-4.5487364209569989</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -15895,7 +16071,7 @@
         <v>-58.048324243726995</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -15910,7 +16086,7 @@
         <v>-35.796262950690988</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -15925,7 +16101,7 @@
         <v>-45.855648308768991</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -15940,7 +16116,7 @@
         <v>-30.162934833455012</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -15955,7 +16131,7 @@
         <v>-48.041820441672996</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -15970,7 +16146,7 @@
         <v>-83.771810719504003</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -15985,7 +16161,7 @@
         <v>34.254940820586995</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -16000,7 +16176,7 @@
         <v>-39.088319633596029</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -16015,7 +16191,7 @@
         <v>-84.13478700914203</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -16030,7 +16206,7 @@
         <v>-44.629986298546015</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -16045,7 +16221,7 @@
         <v>-51.547033906777017</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>61</v>
       </c>
@@ -16060,7 +16236,7 @@
         <v>13.583803279520993</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -16075,7 +16251,7 @@
         <v>15.903458526137001</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -16090,7 +16266,7 @@
         <v>-8.6134662499030128</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -16105,7 +16281,7 @@
         <v>12.764710208790007</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>61</v>
       </c>
@@ -16120,7 +16296,7 @@
         <v>-34.663387216372001</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -16135,7 +16311,7 @@
         <v>29.399421529088983</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -16150,7 +16326,7 @@
         <v>-37.957725732119002</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -16165,7 +16341,7 @@
         <v>-14.896379638988009</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -16180,7 +16356,7 @@
         <v>-16.941544817893032</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>61</v>
       </c>
@@ -16195,7 +16371,7 @@
         <v>3.9104159091260158</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -16210,7 +16386,7 @@
         <v>-12.109322684780011</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -16225,7 +16401,7 @@
         <v>-14.802170682992994</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -16240,7 +16416,7 @@
         <v>-35.453642026972005</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -16255,7 +16431,7 @@
         <v>-10.921612289565019</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>61</v>
       </c>
@@ -16270,7 +16446,7 @@
         <v>31.079244341411993</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>61</v>
       </c>
@@ -16285,7 +16461,7 @@
         <v>8.0117261770070058</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>61</v>
       </c>
@@ -16300,7 +16476,7 @@
         <v>6.5247541433499805</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -16315,7 +16491,7 @@
         <v>25.876472125942996</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -16330,7 +16506,7 @@
         <v>-52.650952145676968</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -16345,7 +16521,7 @@
         <v>-38.725762828048971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -16360,7 +16536,7 @@
         <v>-2.8521827682810112</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -16375,7 +16551,7 @@
         <v>-1.6542480701949955</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>61</v>
       </c>
@@ -16390,7 +16566,7 @@
         <v>31.979637166397993</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>61</v>
       </c>
@@ -16405,7 +16581,7 @@
         <v>5.8663555397860137</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>61</v>
       </c>
@@ -16420,7 +16596,7 @@
         <v>29.625779313194982</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -16435,7 +16611,7 @@
         <v>-36.106137311818998</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -16450,7 +16626,7 @@
         <v>9.3739776360679912</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>61</v>
       </c>
@@ -16465,7 +16641,7 @@
         <v>-27.909797093575008</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -16480,7 +16656,7 @@
         <v>-4.2999313268329615</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -16495,7 +16671,7 @@
         <v>17.249672437876001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -16510,7 +16686,7 @@
         <v>4.3276050224520191</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -16525,7 +16701,7 @@
         <v>32.331010492620976</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -16540,7 +16716,7 @@
         <v>4.0725811788279884</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>61</v>
       </c>
@@ -16555,7 +16731,7 @@
         <v>-20.292341507309004</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>61</v>
       </c>
@@ -16570,7 +16746,7 @@
         <v>-32.151415674863017</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>61</v>
       </c>
@@ -16585,7 +16761,7 @@
         <v>-39.287738697999998</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>61</v>
       </c>
@@ -16600,7 +16776,7 @@
         <v>-44.444296060833977</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>61</v>
       </c>
@@ -16615,7 +16791,7 @@
         <v>-9.1035963440280057</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>61</v>
       </c>
@@ -16630,7 +16806,7 @@
         <v>-15.255582324201015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>61</v>
       </c>
@@ -16645,7 +16821,7 @@
         <v>-4.0536065435910018</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>61</v>
       </c>
@@ -16660,7 +16836,7 @@
         <v>-20.463842023489974</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>61</v>
       </c>
@@ -16675,7 +16851,7 @@
         <v>-7.525305145417974</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -16690,7 +16866,7 @@
         <v>34.893602791062989</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>61</v>
       </c>
@@ -16705,7 +16881,7 @@
         <v>31.557653240186994</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>61</v>
       </c>
@@ -16720,7 +16896,7 @@
         <v>-44.273286359216002</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>61</v>
       </c>
@@ -16735,7 +16911,7 @@
         <v>17.003537387558993</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -16750,7 +16926,7 @@
         <v>35.586355427603991</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>61</v>
       </c>
@@ -16765,7 +16941,7 @@
         <v>-41.032910721535018</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>61</v>
       </c>
@@ -16780,7 +16956,7 @@
         <v>38.46140970623</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>61</v>
       </c>
@@ -16795,7 +16971,7 @@
         <v>-25.096604087366984</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>61</v>
       </c>
@@ -16810,7 +16986,7 @@
         <v>34.12945080246098</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>61</v>
       </c>
@@ -16825,7 +17001,7 @@
         <v>-1.9177913332829917</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>61</v>
       </c>
@@ -16840,7 +17016,7 @@
         <v>-17.291213592326983</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>61</v>
       </c>
@@ -16855,7 +17031,7 @@
         <v>-44.72442319681403</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>61</v>
       </c>
@@ -16870,7 +17046,7 @@
         <v>-13.451678300054994</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>61</v>
       </c>
@@ -16885,7 +17061,7 @@
         <v>-30.378785071488977</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>61</v>
       </c>
@@ -16900,7 +17076,7 @@
         <v>31.908729961522027</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>61</v>
       </c>
@@ -16915,7 +17091,7 @@
         <v>-6.9589637041980268</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>61</v>
       </c>
@@ -16930,7 +17106,7 @@
         <v>-34.875488522330983</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>61</v>
       </c>
@@ -16945,7 +17121,7 @@
         <v>11.987729540080977</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>61</v>
       </c>
@@ -16960,7 +17136,7 @@
         <v>17.347562421114986</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>61</v>
       </c>
@@ -16975,7 +17151,7 @@
         <v>-18.635489633227991</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>61</v>
       </c>
@@ -16990,7 +17166,7 @@
         <v>-23.242050415733985</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>61</v>
       </c>
@@ -17005,7 +17181,7 @@
         <v>-3.8085785485710062</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>61</v>
       </c>
@@ -17020,7 +17196,7 @@
         <v>16.733846988720018</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>61</v>
       </c>
@@ -17035,7 +17211,7 @@
         <v>-40.431887464224019</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>61</v>
       </c>
@@ -17050,7 +17226,7 @@
         <v>30.034681627340035</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>61</v>
       </c>
@@ -17065,7 +17241,7 @@
         <v>9.1967955057709787</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>61</v>
       </c>
@@ -17080,7 +17256,7 @@
         <v>-51.351762092733026</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>61</v>
       </c>
@@ -17095,7 +17271,7 @@
         <v>9.7949729144360163</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>61</v>
       </c>
@@ -17110,7 +17286,7 @@
         <v>-15.227630313940978</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>61</v>
       </c>
@@ -17125,7 +17301,7 @@
         <v>20.256387467778012</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>61</v>
       </c>
@@ -17140,7 +17316,7 @@
         <v>42.386685410767996</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>61</v>
       </c>
@@ -17155,7 +17331,7 @@
         <v>-4.11499416359203</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -17170,7 +17346,7 @@
         <v>-37.025107250118992</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>61</v>
       </c>
@@ -17185,7 +17361,7 @@
         <v>-10.076123880935</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>61</v>
       </c>
@@ -17200,7 +17376,7 @@
         <v>-32.990777893869023</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>61</v>
       </c>
@@ -17215,7 +17391,7 @@
         <v>-17.155148793621009</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>61</v>
       </c>
@@ -17230,7 +17406,7 @@
         <v>-47.187802769466003</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>61</v>
       </c>
@@ -17245,7 +17421,7 @@
         <v>20.750637702651034</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>61</v>
       </c>
@@ -17260,7 +17436,7 @@
         <v>-24.680668056244002</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>61</v>
       </c>
@@ -17275,7 +17451,7 @@
         <v>-11.149487613292024</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>61</v>
       </c>
@@ -17290,7 +17466,7 @@
         <v>-8.5212037938700291</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>61</v>
       </c>
@@ -17305,7 +17481,7 @@
         <v>-6.2325907451759974</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>61</v>
       </c>
@@ -17320,7 +17496,7 @@
         <v>20.130710629824023</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>61</v>
       </c>
@@ -17335,7 +17511,7 @@
         <v>-9.2231698388370091</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>61</v>
       </c>
@@ -17350,7 +17526,7 @@
         <v>37.573239981433005</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>61</v>
       </c>
@@ -17365,7 +17541,7 @@
         <v>17.495894946644967</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>61</v>
       </c>
@@ -17380,7 +17556,7 @@
         <v>-8.4339778738799964</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>61</v>
       </c>
@@ -17395,7 +17571,7 @@
         <v>25.810795944596038</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>61</v>
       </c>
@@ -17410,7 +17586,7 @@
         <v>-12.947798479498005</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>61</v>
       </c>
@@ -17425,7 +17601,7 @@
         <v>27.263209227455974</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>61</v>
       </c>
@@ -17440,7 +17616,7 @@
         <v>18.707201990403007</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>61</v>
       </c>
@@ -17455,7 +17631,7 @@
         <v>6.2456139581789785</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>61</v>
       </c>
@@ -17470,7 +17646,7 @@
         <v>-5.2704801135159869</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>61</v>
       </c>
@@ -17485,7 +17661,7 @@
         <v>30.498828743628991</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>61</v>
       </c>
@@ -17500,7 +17676,7 @@
         <v>-11.188277219340989</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>61</v>
       </c>
@@ -17515,7 +17691,7 @@
         <v>-29.528718333391026</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>61</v>
       </c>
@@ -17530,7 +17706,7 @@
         <v>-2.5102991395820027</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>61</v>
       </c>
@@ -17559,29 +17735,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDE4884-690D-438D-8806-4D367EF219C1}">
-  <dimension ref="B3:Q132"/>
+  <dimension ref="B3:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="S103" sqref="S103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R145" sqref="R145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -17590,18 +17766,18 @@
         <v>-1.6603911560169928</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>_xlfn.T.INV(0.95,99)</f>
         <v>1.6603911560169928</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>91</v>
       </c>
@@ -17610,17 +17786,17 @@
         <v>1.9842169515864165</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C71" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>92</v>
       </c>
@@ -17628,17 +17804,13 @@
         <f>_xlfn.T.DIST(2.4,99,TRUE)</f>
         <v>0.99086771656783168</v>
       </c>
-      <c r="Q72">
-        <f>_xlfn.T.DIST(2.4,99,FALSE)</f>
-        <v>2.3539575321300292E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>92</v>
       </c>
@@ -17647,12 +17819,12 @@
         <v>9.1322834321683217E-3</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C131" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>92</v>
       </c>

--- a/q1_dataFiles/06_Signifikanztests.xlsx
+++ b/q1_dataFiles/06_Signifikanztests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Google Drive\Uni\Psych\Lehre\Quanti\QuantiWebsite\_site\q1_dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA46E823-A45D-496F-95EA-A91C9066A0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE37EE3-F581-4036-ADF3-7ECF482B1733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einstichproben-t-Test Aufgabe" sheetId="11" r:id="rId1"/>
@@ -19,19 +19,26 @@
     <sheet name="Zweistichproben-t-Test Lösung" sheetId="12" r:id="rId4"/>
     <sheet name="Paardifferenzen-Test Aufgabe" sheetId="15" r:id="rId5"/>
     <sheet name="Paardifferenzen-Test Lösung" sheetId="13" r:id="rId6"/>
-    <sheet name="Übersicht t-Befehle" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="84">
   <si>
     <t>Mittelwert</t>
   </si>
@@ -304,33 +311,6 @@
   <si>
     <t>Prüfen Sie auch, ob die Werte von Leuten, die ihre Ernährung nicht auf vegan umstellen, unverändert bleiben.</t>
   </si>
-  <si>
-    <t>t.inv</t>
-  </si>
-  <si>
-    <t>t.inv.2S</t>
-  </si>
-  <si>
-    <t>t.vert</t>
-  </si>
-  <si>
-    <t>t.vert.re</t>
-  </si>
-  <si>
-    <t>t.vert.2S</t>
-  </si>
-  <si>
-    <t>Wahrscheinlichkeit eingeben, t-Wert rauskriegen (z.B.: Ermitteln kritischer t-Werte)</t>
-  </si>
-  <si>
-    <t>T-Wert eingeben, Wahrscheinlichkeit rauskriegen (z.B.: Ermitteln von p-Werten)</t>
-  </si>
-  <si>
-    <t>5% bei N = 100</t>
-  </si>
-  <si>
-    <t>für t = 2,4 und N = 100</t>
-  </si>
 </sst>
 </file>
 
@@ -560,7 +540,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -736,7 +716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2024045727"/>
@@ -784,7 +764,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -860,7 +840,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1036,7 +1016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2024045727"/>
@@ -1084,7 +1064,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1171,7 +1151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1332,7 +1312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339198400"/>
@@ -1427,7 +1407,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1458,7 +1438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562546848"/>
@@ -1507,7 +1487,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1594,7 +1574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1755,7 +1735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339198400"/>
@@ -1850,7 +1830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1881,7 +1861,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562546848"/>
@@ -1930,7 +1910,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2004,7 +1984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2261,7 +2241,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2293,7 +2273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="570355616"/>
@@ -2387,7 +2367,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2418,7 +2398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="662612544"/>
@@ -2466,7 +2446,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2540,7 +2520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2797,7 +2777,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2829,7 +2809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="570355616"/>
@@ -2923,7 +2903,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2954,7 +2934,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="662612544"/>
@@ -3002,7 +2982,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3084,7 +3064,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3300,7 +3280,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="490342368"/>
@@ -3348,7 +3328,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7832,229 +7812,6 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2970494-9106-4554-9050-B5FCC1ECA72F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11525250" y="4676775"/>
-          <a:ext cx="5610225" cy="1209675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Anmerkung:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>im Video wurde an hier dann auch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> der einseitige Fall (gerichtet) demonstriert und die Werte fafür berechnet. Die ursprüngliche Aufgabenstellung geht aber von "ungerichtet" aus und die in der Lösung angegeben Werte sind die korrekten Werte für eben diesen Fall. Wir haben uns entschieden, hier in der Lösung doch diese Ergebnisse zu belassen.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Gerade Verbindung mit Pfeil 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60924B5-4CD3-4FDA-8632-53B2583F0CD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11010900" y="4162425"/>
-          <a:ext cx="523875" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9661C5C2-7F13-4D2E-91A4-953F185070B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11077575" y="3724275"/>
-          <a:ext cx="514350" cy="914401"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9040,305 +8797,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>265624</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C584BC0-8FC1-42D3-A450-B10D8D07963E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2524124" y="927048"/>
-          <a:ext cx="9457250" cy="5041952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>625475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>297043</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>50583</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204F2E5F-F2B9-499F-B1C5-EC79FEFD0204}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12341225" y="914400"/>
-          <a:ext cx="9574393" cy="5105183"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>184149</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>113063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>316024</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Grafik 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33AAF5-57B2-43FE-9716-EAE6D113D540}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2898774" y="6447188"/>
-          <a:ext cx="9561625" cy="5011387"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>178396</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>75743</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Grafik 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9A7FC1-660F-4F89-AD5B-7DB2E9F94166}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3178771" y="12684125"/>
-          <a:ext cx="9537103" cy="5127168"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>269504</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365EA28A-75F4-409F-97D1-27102F3A90AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181350" y="18126075"/>
-          <a:ext cx="9518279" cy="5006975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>178194</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>103578</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Grafik 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD05A9B1-9381-4902-87F7-D092DEA1D382}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3178569" y="23545800"/>
-          <a:ext cx="9530955" cy="4970853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -9604,8 +9062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB57AD-266E-49A4-8AD8-E3A4FE3EABD6}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10071,8 +9529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11180,9 +10638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3ECF6-EB88-41FA-9CD3-A49A1F06F6C3}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14463,8 +13919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A87288A-D722-437D-8FC1-24ABD04BCE9E}">
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17731,111 +17187,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDE4884-690D-438D-8806-4D367EF219C1}">
-  <dimension ref="B3:C132"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R145" sqref="R145"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7">
-        <f>_xlfn.T.INV(0.05,99)</f>
-        <v>-1.6603911560169928</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <f>_xlfn.T.INV(0.95,99)</f>
-        <v>1.6603911560169928</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38">
-        <f>_xlfn.T.INV.2T(0.05,99)</f>
-        <v>1.9842169515864165</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="3">
-        <f>_xlfn.T.DIST(2.4,99,TRUE)</f>
-        <v>0.99086771656783168</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="3">
-        <f>_xlfn.T.DIST.RT(2.4,99)</f>
-        <v>9.1322834321683217E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>92</v>
-      </c>
-      <c r="C132" s="3">
-        <f>_xlfn.T.DIST.2T(2.4,99)</f>
-        <v>1.8264566864336643E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/q1_dataFiles/06_Signifikanztests.xlsx
+++ b/q1_dataFiles/06_Signifikanztests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Google Drive\Uni\Psych\Lehre\Quanti\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE37EE3-F581-4036-ADF3-7ECF482B1733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAD9A4C-2173-41D3-9CF4-67609CD321E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einstichproben-t-Test Aufgabe" sheetId="11" r:id="rId1"/>
@@ -19,26 +19,19 @@
     <sheet name="Zweistichproben-t-Test Lösung" sheetId="12" r:id="rId4"/>
     <sheet name="Paardifferenzen-Test Aufgabe" sheetId="15" r:id="rId5"/>
     <sheet name="Paardifferenzen-Test Lösung" sheetId="13" r:id="rId6"/>
+    <sheet name="Übersicht t-Befehle" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="93">
   <si>
     <t>Mittelwert</t>
   </si>
@@ -311,6 +304,33 @@
   <si>
     <t>Prüfen Sie auch, ob die Werte von Leuten, die ihre Ernährung nicht auf vegan umstellen, unverändert bleiben.</t>
   </si>
+  <si>
+    <t>t.inv</t>
+  </si>
+  <si>
+    <t>t.inv.2S</t>
+  </si>
+  <si>
+    <t>t.vert</t>
+  </si>
+  <si>
+    <t>t.vert.re</t>
+  </si>
+  <si>
+    <t>t.vert.2S</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit eingeben, t-Wert rauskriegen (z.B.: Ermitteln kritischer t-Werte)</t>
+  </si>
+  <si>
+    <t>T-Wert eingeben, Wahrscheinlichkeit rauskriegen (z.B.: Ermitteln von p-Werten)</t>
+  </si>
+  <si>
+    <t>5% bei N = 100</t>
+  </si>
+  <si>
+    <t>für t = 2,4 und N = 100</t>
+  </si>
 </sst>
 </file>
 
@@ -540,7 +560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -716,7 +736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2024045727"/>
@@ -764,7 +784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -840,7 +860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1016,7 +1036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2024045727"/>
@@ -1064,7 +1084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1151,7 +1171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1312,7 +1332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339198400"/>
@@ -1407,7 +1427,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1438,7 +1458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562546848"/>
@@ -1487,7 +1507,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1574,7 +1594,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1735,7 +1755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339198400"/>
@@ -1830,7 +1850,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1861,7 +1881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562546848"/>
@@ -1910,7 +1930,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1984,7 +2004,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2241,7 +2261,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2273,7 +2293,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="570355616"/>
@@ -2367,7 +2387,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2398,7 +2418,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="662612544"/>
@@ -2446,7 +2466,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2520,7 +2540,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2777,7 +2797,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2809,7 +2829,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="570355616"/>
@@ -2903,7 +2923,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2934,7 +2954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="662612544"/>
@@ -2982,7 +3002,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3064,7 +3084,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3280,7 +3300,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="490342368"/>
@@ -3328,7 +3348,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7812,6 +7832,229 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2970494-9106-4554-9050-B5FCC1ECA72F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="4676775"/>
+          <a:ext cx="5610225" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Anmerkung:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>im Video wurde an hier dann auch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> der einseitige Fall (gerichtet) demonstriert und die Werte fafür berechnet. Die ursprüngliche Aufgabenstellung geht aber von "ungerichtet" aus und die in der Lösung angegeben Werte sind die korrekten Werte für eben diesen Fall. Wir haben uns entschieden, hier in der Lösung doch diese Ergebnisse zu belassen.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerade Verbindung mit Pfeil 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60924B5-4CD3-4FDA-8632-53B2583F0CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11010900" y="4162425"/>
+          <a:ext cx="523875" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9661C5C2-7F13-4D2E-91A4-953F185070B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11077575" y="3724275"/>
+          <a:ext cx="514350" cy="914401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8797,6 +9040,305 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>265624</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C584BC0-8FC1-42D3-A450-B10D8D07963E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524124" y="927048"/>
+          <a:ext cx="9457250" cy="5041952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>297043</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204F2E5F-F2B9-499F-B1C5-EC79FEFD0204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12341225" y="914400"/>
+          <a:ext cx="9574393" cy="5105183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>184149</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>113063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>316024</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33AAF5-57B2-43FE-9716-EAE6D113D540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2898774" y="6447188"/>
+          <a:ext cx="9561625" cy="5011387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>178396</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>75743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9A7FC1-660F-4F89-AD5B-7DB2E9F94166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178771" y="12684125"/>
+          <a:ext cx="9537103" cy="5127168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>269504</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365EA28A-75F4-409F-97D1-27102F3A90AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="18126075"/>
+          <a:ext cx="9518279" cy="5006975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>178194</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279399</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>103578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Grafik 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD05A9B1-9381-4902-87F7-D092DEA1D382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178569" y="23545800"/>
+          <a:ext cx="9530955" cy="4970853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -9062,8 +9604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB57AD-266E-49A4-8AD8-E3A4FE3EABD6}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9529,8 +10071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10638,7 +11180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3ECF6-EB88-41FA-9CD3-A49A1F06F6C3}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13919,8 +14463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A87288A-D722-437D-8FC1-24ABD04BCE9E}">
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17187,4 +17731,111 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDE4884-690D-438D-8806-4D367EF219C1}">
+  <dimension ref="B3:C132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R145" sqref="R145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.T.INV(0.05,99)</f>
+        <v>-1.6603911560169928</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>_xlfn.T.INV(0.95,99)</f>
+        <v>1.6603911560169928</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38">
+        <f>_xlfn.T.INV.2T(0.05,99)</f>
+        <v>1.9842169515864165</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="3">
+        <f>_xlfn.T.DIST(2.4,99,TRUE)</f>
+        <v>0.99086771656783168</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="3">
+        <f>_xlfn.T.DIST.RT(2.4,99)</f>
+        <v>9.1322834321683217E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="3">
+        <f>_xlfn.T.DIST.2T(2.4,99)</f>
+        <v>1.8264566864336643E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>